--- a/ФИЗ.xlsx
+++ b/ФИЗ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E617B9B1-CC0D-4FD9-BF36-23BB566852BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{340B8421-50DE-4EFF-914A-0CD7854A7BE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Александров Андрей</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>н</t>
+  </si>
+  <si>
+    <t>1 практика</t>
   </si>
 </sst>
 </file>
@@ -68,15 +71,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,13 +93,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -371,96 +505,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>43370</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ФИЗ.xlsx
+++ b/ФИЗ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{340B8421-50DE-4EFF-914A-0CD7854A7BE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{19896A0E-CED7-495E-80E2-79DDBC4ABC32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>Александров Андрей</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Васильева Анжелика</t>
   </si>
   <si>
-    <t>Егорова Мариариания</t>
+    <t>н</t>
+  </si>
+  <si>
+    <t>Егорова Марианна</t>
   </si>
   <si>
     <t>Карсанаева Маргарита</t>
@@ -37,31 +43,28 @@
     <t>Кириллин Александр</t>
   </si>
   <si>
+    <t>Кулаковский Айсен</t>
+  </si>
+  <si>
+    <t>Макаров Ньургун</t>
+  </si>
+  <si>
     <t>Оконешникова Анастасия</t>
   </si>
   <si>
-    <t>Макаров Ньургун</t>
-  </si>
-  <si>
-    <t>Кулаковский Айсен</t>
-  </si>
-  <si>
     <t>Охлопков Станислав</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>н</t>
-  </si>
-  <si>
-    <t>1 практика</t>
+    <t>инструк</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +84,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,52 +186,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,228 +548,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8</v>
+      </c>
+      <c r="G2" s="12">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>8</v>
+      </c>
+      <c r="J3" s="14">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>7</v>
+      </c>
+      <c r="J4" s="14">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9</v>
+      </c>
+      <c r="J6" s="14">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <v>11</v>
+      </c>
+      <c r="G7" s="12">
+        <v>7</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
+        <v>7</v>
+      </c>
+      <c r="J7" s="14">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19">
+        <v>7</v>
+      </c>
+      <c r="D9" s="20">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F9" s="21">
+        <v>7</v>
+      </c>
+      <c r="G9" s="22">
+        <v>15</v>
+      </c>
+      <c r="H9" s="23">
+        <v>3</v>
+      </c>
+      <c r="I9" s="19">
+        <v>6</v>
+      </c>
+      <c r="J9" s="24">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="28">
         <v>43370</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="C11" s="28">
+        <v>43384</v>
+      </c>
+      <c r="D11" s="28">
+        <v>43398</v>
+      </c>
+      <c r="E11" s="28">
+        <v>43381</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13">
-        <v>43384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>11</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C11:E11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ФИЗ.xlsx
+++ b/ФИЗ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{19896A0E-CED7-495E-80E2-79DDBC4ABC32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17D61AA5-A9A5-44C1-A6BB-59C6894FAE0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       <c r="I3" s="11">
         <v>8</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <v>14</v>
       </c>
       <c r="K3" s="1"/>

--- a/ФИЗ.xlsx
+++ b/ФИЗ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17D61AA5-A9A5-44C1-A6BB-59C6894FAE0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E70B287-4FD0-4575-BF0F-0C7E00AAEC1C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
   <si>
     <t>Александров Андрей</t>
   </si>
@@ -56,6 +57,9 @@
   </si>
   <si>
     <t>инструк</t>
+  </si>
+  <si>
+    <t>1141.875</t>
   </si>
 </sst>
 </file>
@@ -200,9 +204,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,13 +586,13 @@
       <c r="G1" s="4">
         <v>2</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="28">
         <v>4</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>8</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>11</v>
       </c>
       <c r="K1" s="1"/>
@@ -597,31 +601,31 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>14</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>12</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>8</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>13</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>4</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>9</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>15</v>
       </c>
       <c r="K2" s="1"/>
@@ -630,31 +634,31 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>10</v>
       </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>12</v>
       </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
         <v>8</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>14</v>
       </c>
       <c r="K3" s="1"/>
@@ -663,31 +667,31 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>9</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>14</v>
       </c>
-      <c r="H4" s="13">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="12">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
         <v>7</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>12</v>
       </c>
       <c r="K4" s="1"/>
@@ -696,31 +700,31 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>11</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>15</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>4</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>10</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <v>5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>6</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>11</v>
       </c>
       <c r="K5" s="1"/>
@@ -729,31 +733,31 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>12</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>12</v>
       </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
         <v>2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>9</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>15</v>
       </c>
       <c r="K6" s="1"/>
@@ -762,31 +766,31 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>11</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>7</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>2</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>7</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>13</v>
       </c>
       <c r="K7" s="1"/>
@@ -795,31 +799,31 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E8" s="8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>9</v>
       </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>13</v>
       </c>
       <c r="K8" s="1"/>
@@ -828,59 +832,61 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>10</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>7</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>14</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>5</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>7</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>15</v>
       </c>
-      <c r="H9" s="23">
-        <v>3</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="H9" s="22">
+        <v>3</v>
+      </c>
+      <c r="I9" s="18">
         <v>6</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>14</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>43370</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>43384</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>43398</v>
       </c>
-      <c r="E11" s="28">
-        <v>43381</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="E11" s="27">
+        <v>43412</v>
+      </c>
+      <c r="F11" s="27">
+        <v>43440</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -898,7 +904,10 @@
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -913,7 +922,10 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -933,6 +945,9 @@
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -950,6 +965,9 @@
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -967,12 +985,15 @@
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -984,8 +1005,11 @@
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1001,8 +1025,11 @@
       <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1018,8 +1045,11 @@
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1065,11 @@
       <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,6 +1082,21 @@
       <c r="E21" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
